--- a/mcmaster_excel/Metric_Steel_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Steel_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M1.6 × 0.35 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,7 +572,11 @@
           <t>$12.04</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -622,7 +634,11 @@
           <t>12.72</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -680,7 +696,11 @@
           <t>9.06</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -738,7 +758,11 @@
           <t>9.06</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -796,7 +820,11 @@
           <t>9.69</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -854,7 +882,11 @@
           <t>10.15</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -864,19 +896,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>92005A010</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -886,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,15 +998,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>92005A010</t>
+          <t>92005A011</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -944,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,15 +1060,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>92005A011</t>
+          <t>92005A016</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1002,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,15 +1122,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>92005A016</t>
+          <t>92005A019</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1060,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1100,15 +1184,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>92005A019</t>
+          <t>92005A023</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1118,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1158,7 +1246,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>92005A023</t>
+          <t>92005A029</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1166,7 +1254,11 @@
           <t>5.00</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1176,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1216,7 +1308,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>92005A029</t>
+          <t>92005A033</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1224,7 +1316,11 @@
           <t>5.00</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1234,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1274,15 +1370,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>92005A033</t>
+          <t>92005A035</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1292,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1322,7 +1422,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1332,15 +1432,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>92005A035</t>
+          <t>92005A036</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1350,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1380,7 +1484,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1390,15 +1494,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>92005A036</t>
+          <t>92005A037</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1408,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1448,15 +1556,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>92005A037</t>
+          <t>92005A039</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1466,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1476,12 +1588,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1506,15 +1618,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>92005A039</t>
+          <t>92005A052</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1524,19 +1640,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>92005A056</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1546,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1586,15 +1742,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>92005A052</t>
+          <t>92005A061</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1604,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1644,15 +1804,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>92005A056</t>
+          <t>92005A066</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1662,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1702,15 +1866,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>92005A061</t>
+          <t>92005A069</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1720,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1760,7 +1928,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>92005A066</t>
+          <t>92005A071</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1768,7 +1936,11 @@
           <t>5.62</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1778,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1818,7 +1990,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>92005A069</t>
+          <t>92005A075</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1826,7 +1998,11 @@
           <t>5.62</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1836,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1866,7 +2042,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1876,15 +2052,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>92005A071</t>
+          <t>92005A074</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1894,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1934,7 +2114,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>92005A075</t>
+          <t>92005A076</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1942,7 +2122,11 @@
           <t>5.62</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1952,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1982,7 +2166,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1992,15 +2176,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>92005A074</t>
+          <t>92005A077</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2010,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2050,15 +2238,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>92005A076</t>
+          <t>92005A078</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2068,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2108,15 +2300,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>92005A077</t>
+          <t>92005A079</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2126,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2141,7 +2337,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2166,15 +2362,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>92005A078</t>
+          <t>92005A731</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2184,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2199,7 +2399,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2219,20 +2419,24 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>92005A079</t>
+          <t>92005A743</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2242,19 +2446,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>92005A732</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>M2.6 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2264,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2299,20 +2543,24 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>92005A731</t>
+          <t>92005A744</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2322,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2332,12 +2580,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2357,20 +2605,24 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>92005A743</t>
+          <t>92005A111</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2380,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2390,12 +2642,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2410,7 +2662,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2420,15 +2672,19 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>92005A732</t>
+          <t>92005A112</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2438,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2448,12 +2704,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2468,25 +2724,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>92005A744</t>
+          <t>92005A114</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2496,19 +2756,59 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>92005A116</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2518,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2548,7 +2848,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2558,15 +2858,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>92005A111</t>
+          <t>92005A118</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2576,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2616,15 +2920,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>92005A112</t>
+          <t>92005A120</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2634,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2674,7 +2982,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>92005A114</t>
+          <t>92005A122</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2682,7 +2990,11 @@
           <t>4.48</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2692,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2722,7 +3034,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2732,15 +3044,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>92005A116</t>
+          <t>92005A124</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2750,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2790,15 +3106,19 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>92005A118</t>
+          <t>92005A126</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2808,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2838,7 +3158,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2848,15 +3168,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>92005A120</t>
+          <t>92005A127</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2866,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2906,15 +3230,19 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>92005A122</t>
+          <t>92005A128</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2924,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2964,15 +3292,19 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>92005A124</t>
+          <t>92005A129</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2982,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3022,15 +3354,19 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>92005A126</t>
+          <t>92005A130</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3040,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3070,7 +3406,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3080,15 +3416,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>92005A127</t>
+          <t>92005A132</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3098,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3128,7 +3468,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3138,15 +3478,19 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>92005A128</t>
+          <t>92005A133</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3156,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3196,15 +3540,19 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>92005A129</t>
+          <t>92005A135</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3214,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3244,25 +3592,29 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>92005A130</t>
+          <t>92005A136</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3272,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3302,25 +3654,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>92005A132</t>
+          <t>92005A137</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3330,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3365,20 +3721,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>92005A133</t>
+          <t>92005A140</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>10.62</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3388,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3398,17 +3758,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3428,15 +3788,19 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>92005A135</t>
+          <t>92005A710</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3446,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3456,17 +3820,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3481,20 +3845,24 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>92005A136</t>
+          <t>92005A712</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3504,7 +3872,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3514,17 +3882,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3539,20 +3907,24 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>92005A137</t>
+          <t>92005A714</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3562,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3572,17 +3944,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3597,20 +3969,24 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>92005A140</t>
+          <t>92005A716</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3620,19 +3996,59 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>92005A719</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
           <t>M3.5 × 0.6 mm</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3642,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3682,15 +4098,19 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>92005A710</t>
+          <t>92005A733</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3700,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3740,15 +4160,19 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>92005A712</t>
+          <t>92005A721</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3758,7 +4182,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3798,15 +4222,19 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>92005A714</t>
+          <t>92005A723</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3816,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3851,20 +4279,24 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>92005A716</t>
+          <t>92005A725</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3874,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3909,20 +4341,24 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>92005A719</t>
+          <t>92005A727</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3932,7 +4368,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3942,12 +4378,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3972,15 +4408,19 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>92005A733</t>
+          <t>92005A211</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3990,7 +4430,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4000,12 +4440,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4030,15 +4470,19 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>92005A721</t>
+          <t>92005A212</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10.62</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4048,7 +4492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4058,12 +4502,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4078,7 +4522,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4088,15 +4532,19 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>92005A723</t>
+          <t>92005A215</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4106,7 +4554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4116,12 +4564,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4136,25 +4584,29 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>92005A725</t>
+          <t>92005A218</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4164,7 +4616,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4174,12 +4626,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4194,25 +4646,29 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>92005A727</t>
+          <t>92005A220</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4222,19 +4678,59 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>92005A222</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4244,7 +4740,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4284,15 +4780,19 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>92005A211</t>
+          <t>92005A223</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4302,7 +4802,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4332,7 +4832,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4342,15 +4842,19 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>92005A212</t>
+          <t>92005A226</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4360,7 +4864,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4390,7 +4894,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4400,15 +4904,19 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>92005A215</t>
+          <t>92005A227</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4418,7 +4926,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4458,15 +4966,19 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>92005A218</t>
+          <t>92005A228</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4476,7 +4988,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4506,7 +5018,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4516,15 +5028,19 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>92005A220</t>
+          <t>92005A734</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4534,7 +5050,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4574,15 +5090,19 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>92005A222</t>
+          <t>92005A230</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4592,7 +5112,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4622,7 +5142,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4632,15 +5152,19 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>92005A223</t>
+          <t>92005A232</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4650,7 +5174,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4680,7 +5204,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4690,15 +5214,19 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>92005A226</t>
+          <t>92005A234</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4708,7 +5236,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4738,7 +5266,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4748,15 +5276,19 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>92005A227</t>
+          <t>92005A236</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>13.12</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4766,7 +5298,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4806,15 +5338,19 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>92005A228</t>
+          <t>92005A238</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4824,7 +5360,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4854,7 +5390,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4864,15 +5400,19 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>92005A734</t>
+          <t>92005A240</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4882,55 +5422,59 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>92005A230</t>
+          <t>92005A242</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4940,7 +5484,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4970,25 +5514,29 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>92005A232</t>
+          <t>92005A245</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4998,7 +5546,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5033,20 +5581,24 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>92005A234</t>
+          <t>92005A735</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5056,7 +5608,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5086,25 +5638,29 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>92005A236</t>
+          <t>92005A248</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5114,7 +5670,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5144,25 +5700,29 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>92005A238</t>
+          <t>92005A251</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>16.52</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5172,55 +5732,59 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>92005A240</t>
+          <t>92005A315</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5230,7 +5794,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5240,12 +5804,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5265,20 +5829,24 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>92005A242</t>
+          <t>92005A316</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5288,7 +5856,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5298,12 +5866,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5318,25 +5886,29 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>92005A245</t>
+          <t>92005A318</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5346,7 +5918,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5356,12 +5928,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5376,25 +5948,29 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>92005A735</t>
+          <t>92005A320</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5404,7 +5980,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5414,12 +5990,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5434,25 +6010,29 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>92005A248</t>
+          <t>92005A322</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5462,7 +6042,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5472,12 +6052,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5497,20 +6077,24 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>92005A251</t>
+          <t>92005A324</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5520,19 +6104,59 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>92005A326</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5542,7 +6166,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5577,20 +6201,24 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>92005A315</t>
+          <t>92005A327</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5600,7 +6228,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5640,15 +6268,19 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>92005A316</t>
+          <t>92005A328</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5658,7 +6290,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5688,25 +6320,29 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>92005A318</t>
+          <t>92005A736</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5716,7 +6352,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5756,15 +6392,19 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>92005A320</t>
+          <t>92005A330</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5774,7 +6414,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5814,15 +6454,19 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>92005A322</t>
+          <t>92005A332</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5832,7 +6476,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5862,7 +6506,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5872,15 +6516,19 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>92005A324</t>
+          <t>92005A334</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5890,7 +6538,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5920,25 +6568,29 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>92005A326</t>
+          <t>92005A336</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -5948,7 +6600,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5983,20 +6635,24 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>92005A327</t>
+          <t>92005A338</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6006,7 +6662,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6036,25 +6692,29 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>92005A328</t>
+          <t>92005A342</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6064,7 +6724,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6099,20 +6759,24 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>92005A736</t>
+          <t>92005A737</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6122,55 +6786,59 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>92005A330</t>
+          <t>92005A345</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6180,7 +6848,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6210,25 +6878,29 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>92005A332</t>
+          <t>92005A348</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6238,7 +6910,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6268,25 +6940,29 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>92005A334</t>
+          <t>92005A351</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6296,7 +6972,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6331,20 +7007,24 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>92005A336</t>
+          <t>92005A738</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6354,7 +7034,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6364,17 +7044,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6389,20 +7069,24 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>92005A338</t>
+          <t>92005A416</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr"/>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6412,7 +7096,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6422,17 +7106,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6447,20 +7131,24 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>92005A342</t>
+          <t>92005A418</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6470,7 +7158,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6480,17 +7168,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6500,25 +7188,29 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>92005A737</t>
+          <t>92005A420</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6528,7 +7220,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6538,17 +7230,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6558,25 +7250,29 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>92005A345</t>
+          <t>92005A422</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr"/>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6586,7 +7282,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6596,17 +7292,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6621,20 +7317,24 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>92005A348</t>
+          <t>92005A423</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6644,7 +7344,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6654,17 +7354,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6674,25 +7374,29 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>92005A351</t>
+          <t>92005A426</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6702,7 +7406,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6712,17 +7416,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6737,20 +7441,24 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>92005A738</t>
+          <t>92005A427</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6760,19 +7468,59 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>92005A428</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6782,7 +7530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6817,20 +7565,24 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>92005A416</t>
+          <t>92005A429</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>10.31</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr"/>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6840,7 +7592,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6870,25 +7622,29 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>92005A418</t>
+          <t>92005A430</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6898,7 +7654,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6933,20 +7689,24 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>92005A420</t>
+          <t>92005A435</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr"/>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -6956,7 +7716,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6991,20 +7751,24 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>92005A422</t>
+          <t>92005A440</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7014,7 +7778,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7044,25 +7808,29 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>92005A423</t>
+          <t>92005A442</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>15.62</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr"/>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7072,7 +7840,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7107,20 +7875,24 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>92005A426</t>
+          <t>92005A444</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>14.41</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr"/>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7130,7 +7902,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7160,25 +7932,29 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>92005A427</t>
+          <t>92005A446</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7188,7 +7964,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7223,20 +7999,24 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>92005A428</t>
+          <t>92005A450</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr"/>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7246,7 +8026,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7276,25 +8056,29 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>92005A429</t>
+          <t>92005A449</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr"/>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7304,7 +8088,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7334,25 +8118,29 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>92005A430</t>
+          <t>92005A451</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr"/>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7362,7 +8150,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7397,20 +8185,24 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>92005A435</t>
+          <t>92005A452</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>10.62</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr"/>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7420,7 +8212,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7450,25 +8242,29 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>92005A440</t>
+          <t>92005A454</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr"/>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7478,7 +8274,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7513,20 +8309,24 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>92005A442</t>
+          <t>92005A457</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr"/>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7536,7 +8336,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7571,20 +8371,24 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>92005A444</t>
+          <t>92005A460</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>15.56</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr"/>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7594,7 +8398,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7604,17 +8408,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7624,25 +8428,29 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>92005A446</t>
+          <t>92005A519</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>17.61</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr"/>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7652,7 +8460,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7662,17 +8470,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7682,25 +8490,29 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>92005A450</t>
+          <t>92005A521</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>14.81</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7710,7 +8522,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7720,17 +8532,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7745,20 +8557,24 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>92005A449</t>
+          <t>92005A526</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7768,7 +8584,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7778,17 +8594,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7798,25 +8614,29 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>92005A451</t>
+          <t>92005A528</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7826,7 +8646,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7836,17 +8656,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7861,20 +8681,24 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>92005A452</t>
+          <t>92005A530</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7884,7 +8708,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7894,17 +8718,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7919,20 +8743,24 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>92005A454</t>
+          <t>92005A532</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -7942,7 +8770,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7952,17 +8780,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7972,25 +8800,29 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>92005A457</t>
+          <t>92005A533</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr"/>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8000,7 +8832,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8010,17 +8842,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -8030,25 +8862,29 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>92005A460</t>
+          <t>92005A535</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr"/>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8058,19 +8894,59 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>DIN 7985</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>92005A537</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
           <t>M8 × 1.25 mm</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8080,7 +8956,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8115,20 +8991,24 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>92005A519</t>
+          <t>92005A539</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr"/>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8138,7 +9018,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8173,20 +9053,24 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>92005A521</t>
+          <t>92005A541</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr"/>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8196,7 +9080,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8226,25 +9110,29 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>92005A526</t>
+          <t>92005A543</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8254,7 +9142,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8284,25 +9172,29 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>DIN 7985</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>92005A528</t>
+          <t>92005A545</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>12.30</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr"/>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8312,7 +9204,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8347,20 +9239,24 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>92005A530</t>
+          <t>92005A548</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>14.12</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr"/>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8370,7 +9266,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8400,25 +9296,29 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>92005A532</t>
+          <t>92005A552</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr"/>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8428,7 +9328,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8438,12 +9338,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -8468,15 +9368,19 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>92005A533</t>
+          <t>92005A741</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8486,7 +9390,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8496,12 +9400,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8521,20 +9425,24 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>92005A535</t>
+          <t>92005A623</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8544,7 +9452,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8554,12 +9462,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8579,20 +9487,24 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>92005A537</t>
+          <t>92005A626</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr"/>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8602,7 +9514,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8612,12 +9524,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8637,20 +9549,24 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>92005A539</t>
+          <t>92005A629</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr"/>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8660,7 +9576,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8670,12 +9586,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8695,20 +9611,24 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>92005A541</t>
+          <t>92005A633</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr"/>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8718,7 +9638,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8728,12 +9648,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8758,15 +9678,19 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>92005A543</t>
+          <t>92005A635</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr"/>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8776,7 +9700,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8786,12 +9710,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8816,15 +9740,19 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>92005A545</t>
+          <t>92005A637</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr"/>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8834,7 +9762,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8844,12 +9772,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8874,15 +9802,19 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>92005A548</t>
+          <t>92005A640</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr"/>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8892,7 +9824,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8902,12 +9834,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8932,15 +9864,19 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>92005A552</t>
+          <t>92005A643</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8950,19 +9886,59 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>92005A646</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
           <t>M10 × 1.5 mm</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -8972,7 +9948,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9002,25 +9978,29 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>92005A741</t>
+          <t>92005A649</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -9030,7 +10010,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9060,7 +10040,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>DIN 7985</t>
+          <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -9070,596 +10050,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>92005A623</t>
+          <t>92005A652</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr"/>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L156" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>92005A626</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>92005A629</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>92005A633</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>92005A635</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>DIN 7985</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>92005A637</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>92005A640</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>92005A643</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>92005A646</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>92005A649</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>92005A652</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
